--- a/Specs/Durations.xlsx
+++ b/Specs/Durations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>permit procurement</t>
   </si>
@@ -24,9 +24,6 @@
     <t>construction</t>
   </si>
   <si>
-    <t>longterm loans</t>
-  </si>
-  <si>
     <t>revenue</t>
   </si>
   <si>
@@ -40,6 +37,27 @@
   </si>
   <si>
     <t>PROJECT LIFETYPE</t>
+  </si>
+  <si>
+    <t>longterm loans part3</t>
+  </si>
+  <si>
+    <t>longterm loans part1</t>
+  </si>
+  <si>
+    <t>longterm loans part2</t>
+  </si>
+  <si>
+    <t>2 month before start construction</t>
+  </si>
+  <si>
+    <t>at start of construction</t>
+  </si>
+  <si>
+    <t>after finish construction</t>
+  </si>
+  <si>
+    <t>after end of construction</t>
   </si>
 </sst>
 </file>
@@ -56,7 +74,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +126,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,7 +154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -135,6 +165,8 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -436,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O11"/>
+  <dimension ref="A3:Q13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,7 +489,7 @@
     <col min="11" max="11" width="6.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -465,7 +497,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -473,9 +505,9 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -485,9 +517,9 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -495,59 +527,102 @@
       <c r="M6" s="8"/>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
+      <c r="J7" s="3" t="s">
+        <v>13</v>
+      </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
+      <c r="J8" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="5"/>
-      <c r="N9" s="5"/>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="5"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="5"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
-      <c r="L10" s="9"/>
-      <c r="M10" s="9"/>
-      <c r="N10" s="9"/>
-      <c r="O10" s="9"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="L11" s="8"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="11"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Specs/Durations.xlsx
+++ b/Specs/Durations.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23416"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2460" windowWidth="21900" windowHeight="9300"/>
+    <workbookView xWindow="3120" yWindow="2460" windowWidth="25680" windowHeight="14120"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>permit procurement</t>
   </si>
@@ -30,15 +35,6 @@
     <t>insuarence of equipment</t>
   </si>
   <si>
-    <t>subside</t>
-  </si>
-  <si>
-    <t>deprication</t>
-  </si>
-  <si>
-    <t>PROJECT LIFETYPE</t>
-  </si>
-  <si>
     <t>longterm loans part3</t>
   </si>
   <si>
@@ -48,16 +44,22 @@
     <t>longterm loans part2</t>
   </si>
   <si>
-    <t>2 month before start construction</t>
-  </si>
-  <si>
     <t>at start of construction</t>
   </si>
   <si>
-    <t>after finish construction</t>
-  </si>
-  <si>
     <t>after end of construction</t>
+  </si>
+  <si>
+    <t>PROJECT LIFETIME</t>
+  </si>
+  <si>
+    <t>subsidy</t>
+  </si>
+  <si>
+    <t>depreciation</t>
+  </si>
+  <si>
+    <t>2 month before start of construction</t>
   </si>
 </sst>
 </file>
@@ -169,7 +171,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -468,28 +470,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:Q13"/>
+  <dimension ref="A3:S13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1"/>
-    <col min="2" max="2" width="4.85546875" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="4.83203125" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="5.5703125" customWidth="1"/>
-    <col min="5" max="5" width="6.140625" customWidth="1"/>
-    <col min="6" max="6" width="4.7109375" customWidth="1"/>
-    <col min="7" max="7" width="5.5703125" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" customWidth="1"/>
+    <col min="4" max="4" width="5.5" customWidth="1"/>
+    <col min="5" max="5" width="6.1640625" customWidth="1"/>
+    <col min="6" max="6" width="4.6640625" customWidth="1"/>
+    <col min="7" max="7" width="5.5" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
+    <col min="9" max="9" width="6.6640625" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -497,7 +499,7 @@
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -505,7 +507,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -516,43 +518,57 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="S5" s="2"/>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
+      <c r="P7" s="3"/>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="7" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="I8" s="7"/>
       <c r="J8" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="10" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -560,15 +576,17 @@
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="K9" s="10"/>
       <c r="L9" s="10"/>
       <c r="M9" s="10"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="5" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
@@ -576,15 +594,16 @@
       <c r="I10" s="5"/>
       <c r="J10" s="5"/>
       <c r="K10" s="5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="O10" s="5"/>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
@@ -594,16 +613,14 @@
       <c r="K11" s="11"/>
       <c r="L11" s="11"/>
       <c r="M11" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="9" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -620,12 +637,19 @@
       <c r="O12" s="9"/>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+    </row>
+    <row r="13" spans="1:19">
       <c r="L13" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -635,9 +659,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -647,8 +676,13 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>